--- a/document/基本設計/機能一覧表.xlsx
+++ b/document/基本設計/機能一覧表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\13_ProgrammingPractice\document\【実習】各種設計書\基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\14_work\document\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6295D1D-35FD-4314-8492-62B68451D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C039DA-B7DC-46BA-8B3E-72AE7320A6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -199,27 +199,12 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザー管理システム</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>新規登録</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ユーザー検索</t>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -250,45 +235,12 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザーの新規登録をする。</t>
     <rPh sb="5" eb="7">
       <t>シンキ</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>登録された情報によってログインする。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>登録情報の中から任意のユーザーを検索する。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -319,34 +271,86 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ログアウトする。</t>
+    <t>登録・更新・削除</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>登録・更新・削除</t>
+    <t>読書記録管理システム</t>
     <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
+      <t>ドクショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ログイン・ログアウト</t>
+    <t>読書記録管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>ドクショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザー管理</t>
+    <t>読書記録管理</t>
+    <rPh sb="0" eb="2">
+      <t>ドクショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザー管理システム</t>
+    <t>読書記録検索</t>
+    <rPh sb="0" eb="2">
+      <t>ドクショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
     <rPh sb="4" eb="6">
-      <t>カンリ</t>
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録情報の中から任意の読書記録を検索する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドクショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -901,7 +905,7 @@
                 <a:latin typeface="ＭＳ Ｐゴシック"/>
                 <a:ea typeface="ＭＳ Ｐゴシック"/>
               </a:rPr>
-              <a:t>024/12/15</a:t>
+              <a:t>025/1/26</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -1219,7 +1223,7 @@
   <dimension ref="A1:FT43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -1654,7 +1658,7 @@
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
       <c r="F9" s="49" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
@@ -2221,7 +2225,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="46">
-        <v>45641</v>
+        <v>45683</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
@@ -2856,7 +2860,7 @@
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -2940,7 +2944,7 @@
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3160,20 +3164,20 @@
     </row>
     <row r="5" spans="1:173" ht="12.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
       <c r="J5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -3181,7 +3185,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="13"/>
       <c r="P5" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -3208,7 +3212,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -3216,7 +3220,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="13"/>
       <c r="P6" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -3243,7 +3247,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
       <c r="J7" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -3251,7 +3255,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="13"/>
       <c r="P7" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
@@ -3278,7 +3282,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
       <c r="J8" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -3286,7 +3290,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="13"/>
       <c r="P8" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
@@ -3303,30 +3307,22 @@
       <c r="AC8" s="13"/>
     </row>
     <row r="9" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="P9" s="14"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -3351,17 +3347,13 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
